--- a/output_data/charts/capacity-MorrowCounty-0500000US39117.xlsx
+++ b/output_data/charts/capacity-MorrowCounty-0500000US39117.xlsx
@@ -42,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -513,10 +513,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3840</c:v>
+                  <c:v>3.84</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12680</c:v>
+                  <c:v>12.68</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -871,37 +871,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>511400</c:v>
+                  <c:v>511.4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22600</c:v>
+                  <c:v>22.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29600</c:v>
+                  <c:v>29.6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7600</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44000</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>103420</c:v>
+                  <c:v>103.42</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>66160</c:v>
+                  <c:v>66.16</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>75630</c:v>
+                  <c:v>75.63</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>76540</c:v>
+                  <c:v>76.53999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>75380</c:v>
+                  <c:v>75.38</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>71430</c:v>
+                  <c:v>71.42999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1238,7 +1238,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35400</c:v>
+                  <c:v>35.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1342,14 +1342,14 @@
                   <a:rPr lang="en-US" sz="900" baseline="0">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Watts</a:t>
+                  <a:t>Kilowatts (kW)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="[&gt;=1000]#,##0,&quot;K&quot;" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:tickLblPos val="low"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>35400</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>511400</v>
+        <v>511.4</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>22600</v>
+        <v>22.6</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>29600</v>
+        <v>29.6</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>7600</v>
+        <v>7.6</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>44000</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>103420</v>
+        <v>103.42</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>66160</v>
+        <v>66.16</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>75630</v>
+        <v>75.63</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -2266,13 +2266,13 @@
         <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>3840</v>
+        <v>3.84</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>76540</v>
+        <v>76.53999999999999</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>12680</v>
+        <v>12.68</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>75380</v>
+        <v>75.38</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>71430</v>
+        <v>71.42999999999999</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
